--- a/output/sites/clustering with all nutrients/clust_all_nut_findk_validity_measures_all_scats.xlsx
+++ b/output/sites/clustering with all nutrients/clust_all_nut_findk_validity_measures_all_scats.xlsx
@@ -410,25 +410,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>1.055</v>
+        <v>0.929</v>
       </c>
       <c r="E2" t="n">
-        <v>2.466</v>
+        <v>2.697</v>
       </c>
       <c r="F2" t="n">
-        <v>2.244</v>
+        <v>2.537</v>
       </c>
       <c r="G2" t="n">
-        <v>0.226</v>
+        <v>0.198</v>
       </c>
       <c r="H2" t="n">
-        <v>3.251</v>
+        <v>3.458</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>1.055</v>
+        <v>0.929</v>
       </c>
       <c r="E3" t="n">
-        <v>1.855</v>
+        <v>1.983</v>
       </c>
       <c r="F3" t="n">
-        <v>1.776</v>
+        <v>1.979</v>
       </c>
       <c r="G3" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="H3" t="n">
-        <v>3.251</v>
+        <v>3.458</v>
       </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -468,22 +468,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>1.055</v>
+        <v>0.929</v>
       </c>
       <c r="E4" t="n">
-        <v>2.002</v>
+        <v>2.292</v>
       </c>
       <c r="F4" t="n">
-        <v>1.951</v>
+        <v>2.34</v>
       </c>
       <c r="G4" t="n">
-        <v>0.297</v>
+        <v>0.241</v>
       </c>
       <c r="H4" t="n">
-        <v>3.133</v>
+        <v>3.382</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -497,22 +497,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>1.055</v>
+        <v>0.929</v>
       </c>
       <c r="E5" t="n">
-        <v>1.855</v>
+        <v>1.983</v>
       </c>
       <c r="F5" t="n">
-        <v>1.776</v>
+        <v>1.979</v>
       </c>
       <c r="G5" t="n">
-        <v>0.362</v>
+        <v>0.367</v>
       </c>
       <c r="H5" t="n">
-        <v>3.251</v>
+        <v>3.458</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -529,19 +529,19 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.093</v>
+        <v>2.096</v>
       </c>
       <c r="E6" t="n">
-        <v>2.059</v>
+        <v>2.175</v>
       </c>
       <c r="F6" t="n">
-        <v>2.092</v>
+        <v>2.139</v>
       </c>
       <c r="G6" t="n">
-        <v>0.493</v>
+        <v>0.488</v>
       </c>
       <c r="H6" t="n">
-        <v>4.656</v>
+        <v>4.762</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
@@ -555,22 +555,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0.989</v>
+        <v>1.108</v>
       </c>
       <c r="E7" t="n">
-        <v>1.535</v>
+        <v>1.849</v>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>1.947</v>
       </c>
       <c r="G7" t="n">
-        <v>0.335</v>
+        <v>0.295</v>
       </c>
       <c r="H7" t="n">
-        <v>2.863</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
@@ -584,22 +584,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>1.055</v>
+        <v>0.929</v>
       </c>
       <c r="E8" t="n">
-        <v>1.855</v>
+        <v>1.983</v>
       </c>
       <c r="F8" t="n">
-        <v>1.776</v>
+        <v>1.979</v>
       </c>
       <c r="G8" t="n">
-        <v>0.32</v>
+        <v>0.287</v>
       </c>
       <c r="H8" t="n">
-        <v>3.251</v>
+        <v>3.458</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
@@ -613,22 +613,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>0.989</v>
+        <v>0.929</v>
       </c>
       <c r="E9" t="n">
-        <v>1.752</v>
+        <v>1.974</v>
       </c>
       <c r="F9" t="n">
-        <v>1.704</v>
+        <v>1.85</v>
       </c>
       <c r="G9" t="n">
-        <v>0.226</v>
+        <v>0.193</v>
       </c>
       <c r="H9" t="n">
-        <v>2.842</v>
+        <v>2.881</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
@@ -645,19 +645,19 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>2.093</v>
+        <v>2.096</v>
       </c>
       <c r="E10" t="n">
-        <v>2.059</v>
+        <v>2.175</v>
       </c>
       <c r="F10" t="n">
-        <v>2.092</v>
+        <v>2.139</v>
       </c>
       <c r="G10" t="n">
-        <v>0.389</v>
+        <v>0.394</v>
       </c>
       <c r="H10" t="n">
-        <v>4.656</v>
+        <v>4.762</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -671,25 +671,25 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0.989</v>
+        <v>0.958</v>
       </c>
       <c r="E11" t="n">
-        <v>1.535</v>
+        <v>0.823</v>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>0.683</v>
       </c>
       <c r="G11" t="n">
-        <v>0.328</v>
+        <v>0.623</v>
       </c>
       <c r="H11" t="n">
-        <v>2.863</v>
+        <v>3.065</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -703,22 +703,22 @@
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>1.055</v>
+        <v>0.929</v>
       </c>
       <c r="E12" t="n">
-        <v>1.665</v>
+        <v>1.983</v>
       </c>
       <c r="F12" t="n">
-        <v>1.625</v>
+        <v>1.979</v>
       </c>
       <c r="G12" t="n">
-        <v>0.267</v>
+        <v>0.257</v>
       </c>
       <c r="H12" t="n">
-        <v>3.063</v>
+        <v>3.458</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -729,25 +729,25 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>1.255</v>
+        <v>0.929</v>
       </c>
       <c r="E13" t="n">
-        <v>1.848</v>
+        <v>1.974</v>
       </c>
       <c r="F13" t="n">
-        <v>1.581</v>
+        <v>1.85</v>
       </c>
       <c r="G13" t="n">
-        <v>0.223</v>
+        <v>0.146</v>
       </c>
       <c r="H13" t="n">
-        <v>3.507</v>
+        <v>2.881</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -758,25 +758,25 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.989</v>
+        <v>2.096</v>
       </c>
       <c r="E14" t="n">
-        <v>1.752</v>
+        <v>2.175</v>
       </c>
       <c r="F14" t="n">
-        <v>1.704</v>
+        <v>2.139</v>
       </c>
       <c r="G14" t="n">
-        <v>0.219</v>
+        <v>0.393</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842</v>
+        <v>4.762</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -787,25 +787,25 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>2.093</v>
+        <v>0.958</v>
       </c>
       <c r="E15" t="n">
-        <v>2.059</v>
+        <v>1.872</v>
       </c>
       <c r="F15" t="n">
-        <v>2.092</v>
+        <v>1.853</v>
       </c>
       <c r="G15" t="n">
-        <v>0.389</v>
+        <v>0.055</v>
       </c>
       <c r="H15" t="n">
-        <v>4.656</v>
+        <v>3.078</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -816,25 +816,25 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>0.989</v>
+        <v>0.958</v>
       </c>
       <c r="E16" t="n">
-        <v>0.927</v>
+        <v>0.823</v>
       </c>
       <c r="F16" t="n">
-        <v>1.024</v>
+        <v>0.683</v>
       </c>
       <c r="G16" t="n">
-        <v>0.523</v>
+        <v>0.622</v>
       </c>
       <c r="H16" t="n">
-        <v>2.703</v>
+        <v>3.065</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -845,25 +845,25 @@
         <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>1.055</v>
+        <v>1.069</v>
       </c>
       <c r="E17" t="n">
-        <v>1.665</v>
+        <v>1.62</v>
       </c>
       <c r="F17" t="n">
-        <v>1.625</v>
+        <v>1.673</v>
       </c>
       <c r="G17" t="n">
-        <v>0.251</v>
+        <v>0.215</v>
       </c>
       <c r="H17" t="n">
-        <v>3.063</v>
+        <v>2.901</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -874,25 +874,25 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>1.255</v>
+        <v>0.929</v>
       </c>
       <c r="E18" t="n">
-        <v>1.848</v>
+        <v>1.791</v>
       </c>
       <c r="F18" t="n">
-        <v>1.581</v>
+        <v>1.706</v>
       </c>
       <c r="G18" t="n">
-        <v>0.223</v>
+        <v>0.189</v>
       </c>
       <c r="H18" t="n">
-        <v>3.507</v>
+        <v>3.413</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -903,25 +903,25 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>0.989</v>
+        <v>0.929</v>
       </c>
       <c r="E19" t="n">
-        <v>1.752</v>
+        <v>1.974</v>
       </c>
       <c r="F19" t="n">
-        <v>1.704</v>
+        <v>1.85</v>
       </c>
       <c r="G19" t="n">
-        <v>0.168</v>
+        <v>0.132</v>
       </c>
       <c r="H19" t="n">
-        <v>2.842</v>
+        <v>2.881</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -935,22 +935,22 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>2.093</v>
+        <v>2.096</v>
       </c>
       <c r="E20" t="n">
-        <v>2.059</v>
+        <v>2.175</v>
       </c>
       <c r="F20" t="n">
-        <v>2.092</v>
+        <v>2.139</v>
       </c>
       <c r="G20" t="n">
-        <v>0.389</v>
+        <v>0.393</v>
       </c>
       <c r="H20" t="n">
-        <v>4.656</v>
+        <v>4.762</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -961,25 +961,25 @@
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>1.063</v>
+        <v>0.958</v>
       </c>
       <c r="E21" t="n">
-        <v>1.471</v>
+        <v>1.872</v>
       </c>
       <c r="F21" t="n">
-        <v>1.564</v>
+        <v>1.853</v>
       </c>
       <c r="G21" t="n">
-        <v>0.265</v>
+        <v>0.055</v>
       </c>
       <c r="H21" t="n">
-        <v>2.836</v>
+        <v>3.078</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -990,25 +990,25 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>0.989</v>
+        <v>0.958</v>
       </c>
       <c r="E22" t="n">
-        <v>0.927</v>
+        <v>0.823</v>
       </c>
       <c r="F22" t="n">
-        <v>1.024</v>
+        <v>0.683</v>
       </c>
       <c r="G22" t="n">
-        <v>0.52</v>
+        <v>0.622</v>
       </c>
       <c r="H22" t="n">
-        <v>2.703</v>
+        <v>3.065</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1022,22 +1022,22 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>0.794</v>
+        <v>1.069</v>
       </c>
       <c r="E23" t="n">
-        <v>1.141</v>
+        <v>1.62</v>
       </c>
       <c r="F23" t="n">
-        <v>1.234</v>
+        <v>1.673</v>
       </c>
       <c r="G23" t="n">
-        <v>0.381</v>
+        <v>0.191</v>
       </c>
       <c r="H23" t="n">
-        <v>2.865</v>
+        <v>2.901</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1051,22 +1051,22 @@
         <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>0.794</v>
+        <v>0.929</v>
       </c>
       <c r="E24" t="n">
-        <v>1.593</v>
+        <v>1.791</v>
       </c>
       <c r="F24" t="n">
-        <v>1.509</v>
+        <v>1.706</v>
       </c>
       <c r="G24" t="n">
-        <v>0.141</v>
+        <v>0.142</v>
       </c>
       <c r="H24" t="n">
-        <v>2.772</v>
+        <v>3.413</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1077,25 +1077,25 @@
         <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>1.255</v>
+        <v>0.929</v>
       </c>
       <c r="E25" t="n">
-        <v>1.848</v>
+        <v>1.391</v>
       </c>
       <c r="F25" t="n">
-        <v>1.581</v>
+        <v>1.358</v>
       </c>
       <c r="G25" t="n">
-        <v>0.161</v>
+        <v>0.313</v>
       </c>
       <c r="H25" t="n">
-        <v>3.507</v>
+        <v>2.789</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1106,25 +1106,25 @@
         <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.989</v>
+        <v>2.096</v>
       </c>
       <c r="E26" t="n">
-        <v>1.752</v>
+        <v>2.175</v>
       </c>
       <c r="F26" t="n">
-        <v>1.704</v>
+        <v>2.139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.15</v>
+        <v>0.364</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842</v>
+        <v>4.762</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1135,25 +1135,25 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>2.093</v>
+        <v>0.958</v>
       </c>
       <c r="E27" t="n">
-        <v>2.059</v>
+        <v>1.872</v>
       </c>
       <c r="F27" t="n">
-        <v>2.092</v>
+        <v>1.853</v>
       </c>
       <c r="G27" t="n">
-        <v>0.389</v>
+        <v>0.035</v>
       </c>
       <c r="H27" t="n">
-        <v>4.656</v>
+        <v>3.078</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1164,25 +1164,25 @@
         <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>1.063</v>
+        <v>1.044</v>
       </c>
       <c r="E28" t="n">
-        <v>1.471</v>
+        <v>1.743</v>
       </c>
       <c r="F28" t="n">
-        <v>1.564</v>
+        <v>1.709</v>
       </c>
       <c r="G28" t="n">
-        <v>0.265</v>
+        <v>0.147</v>
       </c>
       <c r="H28" t="n">
-        <v>2.836</v>
+        <v>2.828</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1193,22 +1193,22 @@
         <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>0.989</v>
+        <v>0.958</v>
       </c>
       <c r="E29" t="n">
-        <v>0.927</v>
+        <v>0.823</v>
       </c>
       <c r="F29" t="n">
-        <v>1.024</v>
+        <v>0.683</v>
       </c>
       <c r="G29" t="n">
-        <v>0.499</v>
+        <v>0.622</v>
       </c>
       <c r="H29" t="n">
-        <v>2.703</v>
+        <v>3.065</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
@@ -1225,19 +1225,19 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>0.794</v>
+        <v>1.069</v>
       </c>
       <c r="E30" t="n">
-        <v>1.141</v>
+        <v>1.62</v>
       </c>
       <c r="F30" t="n">
-        <v>1.234</v>
+        <v>1.673</v>
       </c>
       <c r="G30" t="n">
-        <v>0.328</v>
+        <v>0.173</v>
       </c>
       <c r="H30" t="n">
-        <v>2.865</v>
+        <v>2.901</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -1251,22 +1251,22 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.913</v>
+        <v>1.255</v>
       </c>
       <c r="E31" t="n">
-        <v>1.186</v>
+        <v>1.86</v>
       </c>
       <c r="F31" t="n">
-        <v>1.18</v>
+        <v>1.598</v>
       </c>
       <c r="G31" t="n">
-        <v>0.332</v>
+        <v>0.194</v>
       </c>
       <c r="H31" t="n">
-        <v>2.459</v>
+        <v>3.684</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -1280,22 +1280,22 @@
         <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>1.255</v>
+        <v>0.929</v>
       </c>
       <c r="E32" t="n">
-        <v>1.848</v>
+        <v>1.391</v>
       </c>
       <c r="F32" t="n">
-        <v>1.581</v>
+        <v>1.358</v>
       </c>
       <c r="G32" t="n">
-        <v>0.118</v>
+        <v>0.27</v>
       </c>
       <c r="H32" t="n">
-        <v>3.507</v>
+        <v>2.789</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -1309,22 +1309,22 @@
         <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>0.794</v>
+        <v>2.096</v>
       </c>
       <c r="E33" t="n">
-        <v>1.285</v>
+        <v>2.175</v>
       </c>
       <c r="F33" t="n">
-        <v>1.345</v>
+        <v>2.139</v>
       </c>
       <c r="G33" t="n">
-        <v>0.252</v>
+        <v>0.364</v>
       </c>
       <c r="H33" t="n">
-        <v>2.873</v>
+        <v>4.762</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -1338,22 +1338,22 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>0.989</v>
+        <v>0.958</v>
       </c>
       <c r="E34" t="n">
-        <v>1.752</v>
+        <v>1.872</v>
       </c>
       <c r="F34" t="n">
-        <v>1.704</v>
+        <v>1.853</v>
       </c>
       <c r="G34" t="n">
-        <v>0.124</v>
+        <v>0.035</v>
       </c>
       <c r="H34" t="n">
-        <v>2.842</v>
+        <v>3.078</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>2.093</v>
+        <v>1.044</v>
       </c>
       <c r="E35" t="n">
-        <v>2.059</v>
+        <v>1.743</v>
       </c>
       <c r="F35" t="n">
-        <v>2.092</v>
+        <v>1.709</v>
       </c>
       <c r="G35" t="n">
-        <v>0.389</v>
+        <v>0.147</v>
       </c>
       <c r="H35" t="n">
-        <v>4.656</v>
+        <v>2.828</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
-        <v>1.063</v>
+        <v>0.929</v>
       </c>
       <c r="E36" t="n">
-        <v>1.471</v>
+        <v>1.367</v>
       </c>
       <c r="F36" t="n">
-        <v>1.564</v>
+        <v>1.442</v>
       </c>
       <c r="G36" t="n">
-        <v>0.265</v>
+        <v>0.285</v>
       </c>
       <c r="H36" t="n">
-        <v>2.836</v>
+        <v>3.176</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -1425,25 +1425,25 @@
         <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" t="n">
-        <v>0.989</v>
+        <v>0.958</v>
       </c>
       <c r="E37" t="n">
-        <v>0.927</v>
+        <v>0.823</v>
       </c>
       <c r="F37" t="n">
-        <v>1.024</v>
+        <v>0.683</v>
       </c>
       <c r="G37" t="n">
-        <v>0.499</v>
+        <v>0.622</v>
       </c>
       <c r="H37" t="n">
-        <v>2.703</v>
+        <v>3.065</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1457,22 +1457,22 @@
         <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>0.794</v>
+        <v>1.069</v>
       </c>
       <c r="E38" t="n">
-        <v>1.141</v>
+        <v>1.62</v>
       </c>
       <c r="F38" t="n">
-        <v>1.234</v>
+        <v>1.673</v>
       </c>
       <c r="G38" t="n">
-        <v>0.328</v>
+        <v>0.162</v>
       </c>
       <c r="H38" t="n">
-        <v>2.865</v>
+        <v>2.901</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1483,25 +1483,25 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>0.913</v>
+        <v>1.255</v>
       </c>
       <c r="E39" t="n">
-        <v>1.186</v>
+        <v>1.86</v>
       </c>
       <c r="F39" t="n">
-        <v>1.18</v>
+        <v>1.598</v>
       </c>
       <c r="G39" t="n">
-        <v>0.326</v>
+        <v>0.194</v>
       </c>
       <c r="H39" t="n">
-        <v>2.459</v>
+        <v>3.684</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1512,25 +1512,25 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>1.255</v>
+        <v>0.929</v>
       </c>
       <c r="E40" t="n">
-        <v>1.848</v>
+        <v>1.391</v>
       </c>
       <c r="F40" t="n">
-        <v>1.581</v>
+        <v>1.358</v>
       </c>
       <c r="G40" t="n">
-        <v>0.118</v>
+        <v>0.212</v>
       </c>
       <c r="H40" t="n">
-        <v>3.507</v>
+        <v>2.789</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1541,25 +1541,25 @@
         <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>0.794</v>
+        <v>2.096</v>
       </c>
       <c r="E41" t="n">
-        <v>1.285</v>
+        <v>2.175</v>
       </c>
       <c r="F41" t="n">
-        <v>1.345</v>
+        <v>2.139</v>
       </c>
       <c r="G41" t="n">
-        <v>0.252</v>
+        <v>0.338</v>
       </c>
       <c r="H41" t="n">
-        <v>2.873</v>
+        <v>4.762</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1570,25 +1570,25 @@
         <v>9</v>
       </c>
       <c r="C42" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>0.989</v>
+        <v>0.958</v>
       </c>
       <c r="E42" t="n">
-        <v>1.52</v>
+        <v>1.872</v>
       </c>
       <c r="F42" t="n">
-        <v>1.485</v>
+        <v>1.853</v>
       </c>
       <c r="G42" t="n">
-        <v>0.191</v>
+        <v>-0.01</v>
       </c>
       <c r="H42" t="n">
-        <v>2.748</v>
+        <v>3.078</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1599,25 +1599,25 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>2.093</v>
+        <v>1.406</v>
       </c>
       <c r="E43" t="n">
-        <v>2.059</v>
+        <v>2.05</v>
       </c>
       <c r="F43" t="n">
-        <v>2.092</v>
+        <v>1.847</v>
       </c>
       <c r="G43" t="n">
-        <v>0.314</v>
+        <v>0.033</v>
       </c>
       <c r="H43" t="n">
-        <v>4.656</v>
+        <v>3.033</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1628,25 +1628,25 @@
         <v>9</v>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D44" t="n">
-        <v>1.063</v>
+        <v>0.929</v>
       </c>
       <c r="E44" t="n">
-        <v>1.471</v>
+        <v>1.367</v>
       </c>
       <c r="F44" t="n">
-        <v>1.564</v>
+        <v>1.442</v>
       </c>
       <c r="G44" t="n">
-        <v>0.261</v>
+        <v>0.285</v>
       </c>
       <c r="H44" t="n">
-        <v>2.836</v>
+        <v>3.176</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1657,25 +1657,25 @@
         <v>9</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1.534</v>
+        <v>1.044</v>
       </c>
       <c r="E45" t="n">
-        <v>1.799</v>
+        <v>1.197</v>
       </c>
       <c r="F45" t="n">
-        <v>1.799</v>
+        <v>1.112</v>
       </c>
       <c r="G45" t="n">
-        <v>0.252</v>
+        <v>0.334</v>
       </c>
       <c r="H45" t="n">
-        <v>3.141</v>
+        <v>2.637</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1686,25 +1686,25 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>0.989</v>
+        <v>0.958</v>
       </c>
       <c r="E46" t="n">
-        <v>0.927</v>
+        <v>0.823</v>
       </c>
       <c r="F46" t="n">
-        <v>1.024</v>
+        <v>0.683</v>
       </c>
       <c r="G46" t="n">
-        <v>0.489</v>
+        <v>0.622</v>
       </c>
       <c r="H46" t="n">
-        <v>2.703</v>
+        <v>3.065</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1718,22 +1718,22 @@
         <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>0.794</v>
+        <v>1.069</v>
       </c>
       <c r="E47" t="n">
-        <v>1.141</v>
+        <v>1.62</v>
       </c>
       <c r="F47" t="n">
-        <v>1.234</v>
+        <v>1.673</v>
       </c>
       <c r="G47" t="n">
-        <v>0.328</v>
+        <v>0.162</v>
       </c>
       <c r="H47" t="n">
-        <v>2.865</v>
+        <v>2.901</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1744,25 +1744,25 @@
         <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>0.913</v>
+        <v>1.255</v>
       </c>
       <c r="E48" t="n">
-        <v>1.186</v>
+        <v>1.86</v>
       </c>
       <c r="F48" t="n">
-        <v>1.18</v>
+        <v>1.598</v>
       </c>
       <c r="G48" t="n">
-        <v>0.311</v>
+        <v>0.194</v>
       </c>
       <c r="H48" t="n">
-        <v>2.459</v>
+        <v>3.684</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1773,25 +1773,25 @@
         <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>1.255</v>
+        <v>0.929</v>
       </c>
       <c r="E49" t="n">
-        <v>1.848</v>
+        <v>1.391</v>
       </c>
       <c r="F49" t="n">
-        <v>1.581</v>
+        <v>1.358</v>
       </c>
       <c r="G49" t="n">
-        <v>0.118</v>
+        <v>0.212</v>
       </c>
       <c r="H49" t="n">
-        <v>3.507</v>
+        <v>2.789</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1802,25 +1802,25 @@
         <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>0.794</v>
+        <v>2.096</v>
       </c>
       <c r="E50" t="n">
-        <v>1.285</v>
+        <v>1.601</v>
       </c>
       <c r="F50" t="n">
-        <v>1.345</v>
+        <v>1.908</v>
       </c>
       <c r="G50" t="n">
-        <v>0.252</v>
+        <v>0.376</v>
       </c>
       <c r="H50" t="n">
-        <v>2.873</v>
+        <v>4.55</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1831,25 +1831,25 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>0.712</v>
+        <v>0.958</v>
       </c>
       <c r="E51" t="n">
-        <v>1.247</v>
+        <v>1.872</v>
       </c>
       <c r="F51" t="n">
-        <v>1.207</v>
+        <v>1.853</v>
       </c>
       <c r="G51" t="n">
-        <v>0.25</v>
+        <v>-0.01</v>
       </c>
       <c r="H51" t="n">
-        <v>2.528</v>
+        <v>3.078</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1860,25 +1860,25 @@
         <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>2.093</v>
+        <v>1.406</v>
       </c>
       <c r="E52" t="n">
-        <v>2.059</v>
+        <v>2.05</v>
       </c>
       <c r="F52" t="n">
-        <v>2.092</v>
+        <v>1.847</v>
       </c>
       <c r="G52" t="n">
-        <v>0.314</v>
+        <v>0.033</v>
       </c>
       <c r="H52" t="n">
-        <v>4.656</v>
+        <v>3.033</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1889,25 +1889,25 @@
         <v>9</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>0.712</v>
+        <v>0.929</v>
       </c>
       <c r="E53" t="n">
-        <v>1.301</v>
+        <v>1.367</v>
       </c>
       <c r="F53" t="n">
-        <v>1.308</v>
+        <v>1.442</v>
       </c>
       <c r="G53" t="n">
-        <v>0.181</v>
+        <v>0.285</v>
       </c>
       <c r="H53" t="n">
-        <v>2.69</v>
+        <v>3.176</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1918,25 +1918,25 @@
         <v>9</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1.063</v>
+        <v>1.044</v>
       </c>
       <c r="E54" t="n">
-        <v>1.471</v>
+        <v>1.197</v>
       </c>
       <c r="F54" t="n">
-        <v>1.564</v>
+        <v>1.112</v>
       </c>
       <c r="G54" t="n">
-        <v>0.232</v>
+        <v>0.334</v>
       </c>
       <c r="H54" t="n">
-        <v>2.836</v>
+        <v>2.637</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1947,25 +1947,23 @@
         <v>9</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1.534</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1.799</v>
-      </c>
+        <v>2.344</v>
+      </c>
+      <c r="E55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F55"/>
       <c r="G55" t="n">
-        <v>0.209</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>3.141</v>
+        <v>5.156</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
